--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABEACE02ECEDDB99737E5ADE589E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AEC81229-D5BE-4C03-A75F-6CE8DDE39935}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A17D19-8225-4615-9570-287B2E041901}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2330" yWindow="2560" windowWidth="16870" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>iifEL1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A17D19-8225-4615-9570-287B2E041901}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689975CB-171B-4A84-8358-CE93854D12E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2330" yWindow="2560" windowWidth="16870" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -47,13 +47,19 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>uiVWbN@gmail.com</t>
+  </si>
+  <si>
+    <t>randompwd123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,20 +74,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,20 +114,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,7 +404,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,62 +430,62 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -507,8 +494,10 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{1EE39BE6-C8A1-42DC-B30E-704B25EC4E82}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{DD7A0537-AD93-4D89-A480-DA66F371535C}"/>
     <hyperlink ref="A7" r:id="rId3" xr:uid="{1B6B4F28-A0EF-4C3E-BDD5-05CDB874BCB2}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{A14EF836-4481-4599-8911-514BDC4E40F0}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{B049F6C2-700C-4BF8-9DAA-10AF0E1928F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>